--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB76BF-523F-4002-9B75-15D6EB5B6266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764FAB78-D579-4AB5-B56B-8D88D11A80D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -249,6 +249,32 @@
   <si>
     <t>Ronan /Geneci to work in a full class diagram for the application
 Rory / Kasia to work on sample code for the frontend and logo</t>
+  </si>
+  <si>
+    <t>Discussion on Class diagram</t>
+  </si>
+  <si>
+    <t>Ronan - x19141815
+Geneci - x19175108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronan organized in one unique class diagram the proposal discussed last week with team
+We met today to adjust the class diagram and it was agreed to delete the CartItem and make it to the Shopping Cart
+</t>
+  </si>
+  <si>
+    <t>Ronan to upload the class diagram to Github for analysis by the team and further suggestion</t>
+  </si>
+  <si>
+    <t>Entire Class Diagram analysis</t>
+  </si>
+  <si>
+    <t>Discussion on FrontEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory - x19139306
+Kasia - x19176414
+</t>
   </si>
 </sst>
 </file>
@@ -457,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,6 +539,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,10 +1230,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,121 +1247,147 @@
     <col min="7" max="7" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>44115</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>44122</v>
+        <v>44130</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>44130</v>
+        <v>44136</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>44136</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>56</v>
+        <v>44142</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>44142</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -1444,17 +1509,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764FAB78-D579-4AB5-B56B-8D88D11A80D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1042608-329D-417C-824F-4E06869DE996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -275,6 +275,57 @@
     <t xml:space="preserve">Rory - x19139306
 Kasia - x19176414
 </t>
+  </si>
+  <si>
+    <t>Creating database relationship workbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geneci - x19175108
+Ronan - x19141815
+</t>
+  </si>
+  <si>
+    <t>Database tables and relationship created</t>
+  </si>
+  <si>
+    <t>Enter some data to test the relationship.
+Start creating tables in test enviroment</t>
+  </si>
+  <si>
+    <t>Allocated hours</t>
+  </si>
+  <si>
+    <t>User authentication functionality in test enviroment</t>
+  </si>
+  <si>
+    <t>Assignment tasks for Technical Functionalities delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geneci - x19175108
+Kasia - x19176414
+Rory - x19139306
+Ronan - x19141815
+</t>
+  </si>
+  <si>
+    <t>All tables ere created. Relationship to be tested with data</t>
+  </si>
+  <si>
+    <t>Working on FrontEnd</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion on what is need for technical specification.
+Adjustment on Proposal to Technical Specification
+</t>
+  </si>
+  <si>
+    <t>Ronan to work on Model / database specification
+Kasia to design to User Flow
+Rory to provide FrontEnd technical specification
+Geneci to provide backend technical specification</t>
   </si>
 </sst>
 </file>
@@ -483,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,6 +567,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,16 +603,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,10 +958,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
@@ -1009,24 +1064,24 @@
       <c r="K8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1061,20 +1116,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1230,11 +1285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,39 +1300,44 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>44115</v>
       </c>
@@ -1296,8 +1356,11 @@
       <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>44122</v>
       </c>
@@ -1314,8 +1377,11 @@
       <c r="G4" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>44130</v>
       </c>
@@ -1334,8 +1400,11 @@
       <c r="G5" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>44136</v>
       </c>
@@ -1354,8 +1423,11 @@
       <c r="G6" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>44142</v>
       </c>
@@ -1368,150 +1440,218 @@
       <c r="E7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
         <v>44142</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>44149</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>44149</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="36">
+        <v>44156</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>44157</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1042608-329D-417C-824F-4E06869DE996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63BF6DB-0112-4FB9-B78A-ED895AB5D1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Working on FrontEnd</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discussion on what is need for technical specification.
 Adjustment on Proposal to Technical Specification
 </t>
@@ -326,6 +323,58 @@
 Kasia to design to User Flow
 Rory to provide FrontEnd technical specification
 Geneci to provide backend technical specification</t>
+  </si>
+  <si>
+    <t>Geneci - x19175108
+Ronan - x19141815</t>
+  </si>
+  <si>
+    <t>Done for Technical Submission</t>
+  </si>
+  <si>
+    <t>Database tables: address, admin, brand,categories,customers,offers,payment,product,shipping</t>
+  </si>
+  <si>
+    <t>Discussion with team how to proceed to add the logic</t>
+  </si>
+  <si>
+    <t>Adjusting code for databse based on tables decision</t>
+  </si>
+  <si>
+    <t>Database tables decision made</t>
+  </si>
+  <si>
+    <t>Work with decision tables on Rails</t>
+  </si>
+  <si>
+    <t>Database creation done in Rails</t>
+  </si>
+  <si>
+    <t>Add functionality for Edit Profile in Rails test</t>
+  </si>
+  <si>
+    <t>Add functionality for Edit Profile in Rails test
+Create scaffold in Ruby project SSD</t>
+  </si>
+  <si>
+    <t>Functionallity Edit Profile added
+Database tables created</t>
+  </si>
+  <si>
+    <t>0512-2020</t>
+  </si>
+  <si>
+    <t>Agenda for meeting:
+Review project up to date
+What have we got?
+What was wrong with code last week?(Frontend)
+Frontend development to finish
+Backend progress
+Backend logig what is missing
+Report
+Presentation - What and How?
+Video Presentation How?
+AOB</t>
   </si>
 </sst>
 </file>
@@ -534,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -546,17 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,15 +609,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,12 +635,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,130 +1004,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>44115</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>44122</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>44129</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>44136</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>44143</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>44150</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>44157</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>44164</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>44171</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
         <v>44178</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="15">
         <v>44179</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1116,20 +1162,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1204,7 +1250,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7"/>
@@ -1214,14 +1260,14 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1"/>
@@ -1233,7 +1279,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1253,7 +1299,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1"/>
@@ -1266,7 +1312,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -1288,366 +1334,412 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+      <c r="B3" s="32">
         <v>44115</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="32">
         <v>44122</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="32">
         <v>44130</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="32">
         <v>44136</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="32">
         <v>44142</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="33">
         <v>44142</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
+      <c r="B9" s="33">
         <v>44149</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="32">
         <v>44149</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>44156</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="32">
         <v>44157</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="G12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="32">
+        <v>44163</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>44164</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="32">
+        <v>44165</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63BF6DB-0112-4FB9-B78A-ED895AB5D1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67586A53-A167-470B-915A-F6133390CED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -364,17 +364,36 @@
     <t>0512-2020</t>
   </si>
   <si>
+    <t>Geneci - x19175108
+Kasia - x19176414
+Rory - x19139306
+Ronan - x19141815</t>
+  </si>
+  <si>
     <t>Agenda for meeting:
 Review project up to date
 What have we got?
 What was wrong with code last week?(Frontend)
 Frontend development to finish
 Backend progress
-Backend logig what is missing
+Backend what is missing
 Report
 Presentation - What and How?
 Video Presentation How?
-AOB</t>
+AOB
+Upade Management sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasia to select pictures for each category - working on static page information.
+Work edit profile Geneci / Ronan
+Hide the admin - Ronan / Geneci
+Stalish User form in Devise - Rory
+Change Gift Card to Offers - Rory
+Change underline of fields - Rory
+Change categories name  - Rory
+Report - email Liam about what is needed
+Presentation -  Kasia / Geneci
+</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1353,8 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,18 +1675,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>

--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67586A53-A167-470B-915A-F6133390CED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5C028-60A7-4A5D-BC5D-A2CCA5D0B8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29280" yWindow="270" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -359,9 +359,6 @@
   <si>
     <t>Functionallity Edit Profile added
 Database tables created</t>
-  </si>
-  <si>
-    <t>0512-2020</t>
   </si>
   <si>
     <t>Geneci - x19175108
@@ -394,6 +391,29 @@
 Report - email Liam about what is needed
 Presentation -  Kasia / Geneci
 </t>
+  </si>
+  <si>
+    <t>Adding Edit Profile to code in SSD</t>
+  </si>
+  <si>
+    <t>Added code and pusehed to github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Edit Profile - Test </t>
+  </si>
+  <si>
+    <t>Add fields to user profile in Divise
+Work Edit Profile - Test 
+Create Divise:Views user</t>
+  </si>
+  <si>
+    <t>Added code and pusehed to github in test instatance</t>
+  </si>
+  <si>
+    <t>Add fields to user profile in Devise</t>
+  </si>
+  <si>
+    <t>Adjust files to accept user first name as paramenters</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1373,8 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,41 +1696,69 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="32">
+        <v>44170</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="32">
+        <v>44170</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="32">
+        <v>44171</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>

--- a/SSD Project/Project Management.xlsx
+++ b/SSD Project/Project Management.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949FD80-2D2A-483A-8789-82B5EDEF899C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDAE27-4E5D-43A1-9937-59C7B20254FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29445" yWindow="75" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="ProjectLogs" sheetId="2" r:id="rId2"/>
+    <sheet name="ProjectLogs" sheetId="2" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -438,12 +438,95 @@
   <si>
     <t>Discussion with group on tomorrow meeting(08/12/2020)</t>
   </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>Remove first name from sign in form
+Add validation for product and items model</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Sign only has parameters for login access email and password
+Now when creating a prodcut or a new item ist is mandatory to fill up all fields.</t>
+  </si>
+  <si>
+    <t>Continue to validate tables</t>
+  </si>
+  <si>
+    <t>Weekly team meeting
+Review Report
+Review frontend
+Review backend
+Review Testing</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Adjustment for submission were discussed and assigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory to continue working on Product Category
+Geneci to continue work on rules for Admin and test cases
+Ronan to continue work on report and rules
+Kasia to continue work on product and report
+</t>
+  </si>
+  <si>
+    <t>Restriction rules for Admin on Production</t>
+  </si>
+  <si>
+    <t>Geneci / Ronan</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Continue to create them</t>
+  </si>
+  <si>
+    <t>Rule to restriction non admin user manipulationg products category created</t>
+  </si>
+  <si>
+    <t>Admin user can create offers
+Non admin logged in user can see offers
+Need to redirect non logged user to the login page</t>
+  </si>
+  <si>
+    <t>Admin Rule creation 
+SuperAdmin created</t>
+  </si>
+  <si>
+    <t>Rule to create admin users created in both instances
+Used Rails console to create a SuperAdmin</t>
+  </si>
+  <si>
+    <t>Creat restriction based on user role</t>
+  </si>
+  <si>
+    <t>Problem with repository</t>
+  </si>
+  <si>
+    <t>Geneci Resolved
+Ronan still having issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code from GitHub is not allowing to pull.
+We spent 3hours trying to resolve the issue.
+In the end I was able to recreating a repository from the downloaded folder aand continue to work on it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Ronan repository working. Menwhile we wil review record and internet for adding </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +544,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -630,22 +719,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -656,7 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -706,14 +783,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,11 +1126,602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="23">
+        <v>44115</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
+        <v>44122</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>44130</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>44136</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>44142</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="24">
+        <v>44142</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="24">
+        <v>44149</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>44149</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>44156</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>44157</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>44163</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>44164</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>44165</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>44170</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>44170</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>44171</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>44171</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>44172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
+        <v>44174</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
+        <v>44176</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="23">
+        <v>44177</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
+        <v>44177</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="32">
+        <v>44177</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="32">
+        <v>44178</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,130 +1731,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>44115</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>44122</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>44129</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>44136</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>44143</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>44150</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>44157</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>44164</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>44171</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>44178</v>
       </c>
-      <c r="M7" s="15">
-        <v>44179</v>
+      <c r="M7" s="14">
+        <v>44185</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1224,20 +1891,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1301,18 +1968,17 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="9"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7"/>
@@ -1322,14 +1988,13 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="K17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="10"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1"/>
@@ -1341,7 +2006,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1361,7 +2026,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1"/>
@@ -1374,500 +2039,20 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="18"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
-        <v>44115</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
-        <v>44122</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
-        <v>44130</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
-        <v>44136</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
-        <v>44142</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
-        <v>44142</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
-        <v>44149</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
-        <v>44149</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
-        <v>44156</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
-        <v>44157</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
-        <v>44163</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
-        <v>44164</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
-        <v>44165</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
-        <v>44170</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
-        <v>44170</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
-        <v>44171</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>44171</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>44172</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
